--- a/系统测试相关报告/MeetHere系统测试计划.xlsx
+++ b/系统测试相关报告/MeetHere系统测试计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD493F5-A55E-4642-B5BA-A27D1A49B6C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84800D6B-ABA6-462E-91AB-86F2CAFD12C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" tabRatio="521" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="220">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -640,10 +640,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、在用户名中输入“教师”，在密码中输入“123456”，单击“登录”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MeetHere_03DeleteReserve_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,6 +753,148 @@
   </si>
   <si>
     <t>不显示新添加的通知（"2020-01-25 00:00","新年快乐"）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师成功添加中文+数字课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、在（课程名称，上课时间，开始时间，结束时间，场馆号）依次输入（"围棋1","周一","13:00","14:30","1"）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示新加入的（"围棋1","周一","13:00","14:30","1"）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师失败添加已被占用时间课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeetHere_04AddCourse_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeetHere_04AddCourse_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未显示（"Badminton","周三","13:00","13:30","2"）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、在（课程名称，上课时间，开始时间，结束时间，场馆号）依次输入（"Badminton","周三","13:00","13:30","2"）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、点击“我的课程”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客删除已预约的预约</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示title为“Meet Here 游客主页”的网页</t>
+  </si>
+  <si>
+    <t>显示title为“游客—预约场馆”的网页</t>
+  </si>
+  <si>
+    <t>2、在用户名中输入“唐艺昕”，在密码中输入“123456”，单击“登录”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中包含一个教师用户(唐艺昕,123456)，包含一个预约其编号为5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeetHere_02ReserveField_007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客失败预约错误场地编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中包含一个游客用户(唐艺昕,123456)，1号场馆不包含一个场地其编号为99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、在（场馆编号，场地编号，预约日期，开始时间，结束时间）依次输入（1,99,2020:01:03,14:00,16:00），单击“添加预约”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示（1,99,2020:01:03,14:00,16:00）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeetHere_02ReserveField_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客失败预约错误场馆编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中包含一个游客用户(唐艺昕,123456)，不包含一个场馆其编号为99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、在（场馆编号，场地编号，预约日期，开始时间，结束时间）依次输入（99,2,2020:01:03,14:00,16:00），单击“添加预约”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示（99,2,2020:01:03,14:00,16:00）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeetHere_06SelectCourse_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生选择不存在的课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中包含一个学生用户(李雪莹,123456)，不存在一个课程其编码为999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、在左数第一个课程编号中输入999，单击“添加课程”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未显示课程编号为999的课</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1097,8 +1235,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,6 +1257,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,23 +1277,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,7 +1367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1260,7 +1419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1478,12 +1637,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" ht="16.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -1581,7 +1740,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1597,50 +1756,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1649,86 +1810,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1737,78 +1904,80 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>171</v>
+      <c r="G9" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="35"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -3191,10 +3360,18 @@
       <c r="H152" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3202,8 +3379,8 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3228,13 +3405,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -3377,8 +3554,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3394,52 +3571,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3451,15 +3628,15 @@
       <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
@@ -3467,11 +3644,11 @@
         <v>58</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="40"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="3" t="s">
@@ -3479,19 +3656,19 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="35"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="36" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3503,15 +3680,15 @@
       <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
@@ -3519,11 +3696,11 @@
         <v>60</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="40"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="3" t="s">
@@ -3531,19 +3708,19 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="35"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -3555,15 +3732,15 @@
       <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
@@ -3571,31 +3748,31 @@
         <v>61</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="40"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="35"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="36" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3607,15 +3784,15 @@
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
@@ -3623,31 +3800,31 @@
         <v>59</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="36" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3659,15 +3836,15 @@
       <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
@@ -3675,31 +3852,31 @@
         <v>33</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="40"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="35"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="36" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3711,15 +3888,15 @@
       <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="3" t="s">
         <v>50</v>
       </c>
@@ -3727,17 +3904,19 @@
         <v>33</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="35"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -5101,12 +5280,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
@@ -5115,30 +5312,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5151,8 +5330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5168,52 +5347,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5222,92 +5401,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="36" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -5316,92 +5495,92 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="36" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="36" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -5410,90 +5589,92 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="36" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="36" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -5502,118 +5683,120 @@
       <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="36" t="s">
         <v>127</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -5622,90 +5805,92 @@
       <c r="F29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29" s="36" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="36" t="s">
         <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -5714,196 +5899,268 @@
       <c r="F35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A41" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+    </row>
+    <row r="44" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A47" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
@@ -6926,22 +7183,38 @@
       <c r="H154" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="A21:A28"/>
+  <mergeCells count="56">
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="H47:H52"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="G35:G40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="H21:H28"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:C14"/>
@@ -6950,18 +7223,23 @@
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="C29:C34"/>
     <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="G29:G34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6973,8 +7251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6990,52 +7268,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -7044,92 +7322,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="36" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -7138,92 +7416,92 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="36" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="36" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -7232,140 +7510,174 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>132</v>
+      <c r="H15" s="36" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="3" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="40"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="35"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
@@ -8618,13 +8930,19 @@
       <c r="H151" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="D15:D20"/>
+  <mergeCells count="32">
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -8633,6 +8951,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8642,10 +8972,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8653,7 +8983,7 @@
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="23.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
@@ -8661,50 +8991,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>92</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -8713,87 +9045,93 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>158</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>159</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>32</v>
@@ -8801,87 +9139,93 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>159</v>
+      <c r="D15" s="46" t="s">
+        <v>158</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>32</v>
@@ -8889,213 +9233,293 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A21" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A27" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -10280,14 +10704,47 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="C9:C14"/>
+  <mergeCells count="38">
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="C27:C34"/>
+    <mergeCell ref="D27:D34"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="G1:G2"/>
@@ -10299,6 +10756,14 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D3:D8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="C9:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10327,50 +10792,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -10383,10 +10848,10 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
@@ -10397,10 +10862,10 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
@@ -10411,10 +10876,10 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="40"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>97</v>
       </c>
@@ -10425,10 +10890,10 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>98</v>
       </c>
@@ -10439,10 +10904,10 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
@@ -10451,15 +10916,15 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="43" t="s">
+      <c r="D9" s="36" t="s">
         <v>167</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>168</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>32</v>
@@ -10471,10 +10936,10 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
@@ -10485,10 +10950,10 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
@@ -10499,12 +10964,12 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>131</v>
@@ -10513,24 +10978,24 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="40"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
@@ -11943,8 +12408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11960,50 +12425,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -12012,86 +12479,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -12100,174 +12573,208 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -12275,7 +12782,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -13564,10 +14071,20 @@
       <c r="H152" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="D9:D15"/>
+  <mergeCells count="26">
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="H9:H16"/>
+    <mergeCell ref="G9:G16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="C17:C22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
@@ -13579,6 +14096,8 @@
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13590,8 +14109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13607,50 +14126,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -13659,115 +14180,121 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="40"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="35"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="52"/>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="36" t="s">
         <v>178</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>179</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>32</v>
@@ -13775,90 +14302,94 @@
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="3" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="48" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="40"/>
+      <c r="D17" s="49"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="49"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
@@ -15213,12 +15744,16 @@
       <c r="H153" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="D11:D18"/>
+  <mergeCells count="20">
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="H3:H10"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A11:A16"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -15226,6 +15761,10 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D3:D10"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C11:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/系统测试相关报告/MeetHere系统测试计划.xlsx
+++ b/系统测试相关报告/MeetHere系统测试计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84800D6B-ABA6-462E-91AB-86F2CAFD12C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462BAA6-A7F1-4640-A4DB-550908251AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" tabRatio="521" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="220">
   <si>
     <t>预置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1232,16 +1232,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1637,12 +1628,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" ht="16.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -1739,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9:H14"/>
     </sheetView>
   </sheetViews>
@@ -1756,52 +1747,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1810,92 +1801,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1904,80 +1895,80 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -3405,13 +3396,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -3554,8 +3545,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3571,52 +3562,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3625,50 +3616,50 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="33" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3677,50 +3668,50 @@
       <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -3729,50 +3720,50 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3781,50 +3772,50 @@
       <c r="F12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3833,50 +3824,50 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="33" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3885,38 +3876,38 @@
       <c r="F18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -5279,17 +5270,23 @@
       <c r="H156" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
+  <mergeCells count="44">
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C18:C20"/>
@@ -5298,12 +5295,12 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
@@ -5330,8 +5327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5347,52 +5344,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -5401,92 +5398,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -5495,92 +5492,92 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -5589,92 +5586,92 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>132</v>
+      <c r="H15" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -5683,120 +5680,120 @@
       <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -5805,92 +5802,92 @@
       <c r="F29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -5899,92 +5896,92 @@
       <c r="F35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="33" t="s">
         <v>204</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -5993,92 +5990,92 @@
       <c r="F41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
     </row>
     <row r="44" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="3" t="s">
         <v>205</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="33" t="s">
         <v>209</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -6087,80 +6084,80 @@
       <c r="F47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="33" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
     </row>
     <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="3" t="s">
         <v>210</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
     </row>
     <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
@@ -7268,52 +7265,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -7322,92 +7319,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -7416,92 +7413,92 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3" t="s">
         <v>151</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -7510,92 +7507,92 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="33" t="s">
         <v>201</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -7604,80 +7601,80 @@
       <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
@@ -8974,7 +8971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:D34"/>
     </sheetView>
   </sheetViews>
@@ -8991,52 +8988,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -9045,92 +9042,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -9139,92 +9136,92 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="43" t="s">
         <v>158</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -9233,92 +9230,92 @@
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -9327,92 +9324,92 @@
       <c r="F21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="43" t="s">
         <v>92</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -9421,102 +9418,102 @@
       <c r="F27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="47"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="47"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="3" t="s">
         <v>113</v>
       </c>
@@ -10776,7 +10773,7 @@
   <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10792,50 +10789,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -10844,86 +10843,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>167</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -10932,76 +10937,80 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
@@ -12384,7 +12393,11 @@
       <c r="H152" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="G1:G2"/>
@@ -12397,6 +12410,10 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B9:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12408,7 +12425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -12425,52 +12442,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -12479,92 +12496,92 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -12573,120 +12590,120 @@
       <c r="F9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="33" t="s">
         <v>216</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -12695,86 +12712,86 @@
       <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="37"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="37"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="37"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="3" t="s">
         <v>217</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="37"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="37"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="30"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -12782,7 +12799,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="B24" s="49"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -14110,7 +14127,7 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -14126,52 +14143,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="33" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -14180,120 +14197,120 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="47" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="51"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="51"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="51"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="51"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="51"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="51"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="52"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>178</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -14302,94 +14319,94 @@
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="3" t="s">
         <v>179</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="48" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="45" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="49"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="46"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="49"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="46"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
